--- a/public/tech_radar.xlsx
+++ b/public/tech_radar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="items" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
